--- a/管理/素材用エクセル/Card.xlsx
+++ b/管理/素材用エクセル/Card.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\企画＿恋愛ｘローグライク\素材用エクセル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryose\Desktop\GitHubClone\LoveBullet\管理\素材用エクセル\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AD1936-3F43-4518-B603-BE95A8115B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4754E331-1ADD-4613-8520-F1353AAF7A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="2" xr2:uid="{07171D8B-7989-47A4-AFD7-2D2CE0973B3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
+    <sheet name="Enemy" sheetId="2" r:id="rId2"/>
+    <sheet name="EnemyATPattern" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="40">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1"/>
@@ -149,6 +151,89 @@
     <rPh sb="10" eb="11">
       <t>カ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ2</t>
+  </si>
+  <si>
+    <t>ザコ3</t>
+  </si>
+  <si>
+    <t>テスト用のザコ1だ</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト用のザコ2だ</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト用のザコ3だ</t>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FluctuationPlus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FluctuationMinus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern2</t>
+  </si>
+  <si>
+    <t>Pattern3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なにもしない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通常攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>ツウジョウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守る</t>
+    <rPh sb="0" eb="1">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pattern5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATWeaken</t>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -206,7 +291,28 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -540,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD18CAD-EDE6-4554-B9E1-5C7CD2CA184A}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -779,6 +885,221 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A3:B106">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5867E95E-26C4-4907-8B07-E004BDE1C601}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="A3:B6">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -791,4 +1112,188 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07AF5627-C990-49D5-A232-F69BD0020EB1}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="24.125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>